--- a/Clase/Simulacionde informacion.xlsx
+++ b/Clase/Simulacionde informacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario.207\Documents\GitHub\Presupuesto\Clase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AB7ED7-8EF9-49AC-81E3-2DB007587FBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC24B7DD-9A86-4135-AA20-3E2DDDEB7DD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="2" activeTab="3" xr2:uid="{40064D5F-B35F-41F3-A50B-554BD813C67A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="3" xr2:uid="{40064D5F-B35F-41F3-A50B-554BD813C67A}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Tipo de Dato</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>Volver al inicio</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>Atributo</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Estado</t>
   </si>
 </sst>
 </file>
@@ -162,13 +180,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,7 +748,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,6 +781,9 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -811,11 +835,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235ADF5D-12FD-4286-9EA4-B90349F7785B}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,31 +873,105 @@
         <v>Entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertence un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro  puede ser ingreso, el cual indica que los rubros catagorizados con él, corresponde a dinero que la persona va a recibir por diferentes razones: salarios ,inversiones, ganancias ocacionales</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al Inicio" xr:uid="{BDC60357-0AF3-417D-A357-5831DDD98F09}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{557C5C38-525D-49E1-9009-2159B42155DC}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F05F70A-C6A8-4852-B63E-0435180A2A1A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>'Objetos de Dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'Objetos de Dominio'!$A$3</f>
+        <v>Rubro</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>'Objetos de Dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'Objetos de Dominio'!$B$3</f>
+        <v>a</v>
       </c>
     </row>
   </sheetData>

--- a/Clase/Simulacionde informacion.xlsx
+++ b/Clase/Simulacionde informacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario.207\Documents\GitHub\Presupuesto\Clase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC24B7DD-9A86-4135-AA20-3E2DDDEB7DD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC96EAE-4AD3-47C9-BAC4-DC4E0FDC86F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="3" xr2:uid="{40064D5F-B35F-41F3-A50B-554BD813C67A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Tipo de Dato</t>
   </si>
@@ -122,6 +122,69 @@
   </si>
   <si>
     <t>Estado</t>
+  </si>
+  <si>
+    <t>Longitud Minima</t>
+  </si>
+  <si>
+    <t>Longitud Maxima</t>
+  </si>
+  <si>
+    <t>Precisión</t>
+  </si>
+  <si>
+    <t>bytes</t>
+  </si>
+  <si>
+    <t>kbytes</t>
+  </si>
+  <si>
+    <t>mbytes</t>
+  </si>
+  <si>
+    <t>gbytes</t>
+  </si>
+  <si>
+    <t>usuarios</t>
+  </si>
+  <si>
+    <t>Rango Inicial</t>
+  </si>
+  <si>
+    <t>Rango Final</t>
+  </si>
+  <si>
+    <t>Formato</t>
+  </si>
+  <si>
+    <t>Formato deun identificador unico universal (UUID)</t>
+  </si>
+  <si>
+    <t>Solo letras y espacios</t>
+  </si>
+  <si>
+    <t>Cualquier tipo de carácter</t>
+  </si>
+  <si>
+    <t>Valor por defecto</t>
+  </si>
+  <si>
+    <t>En caso de que no se registre una descripcion se registrara en  este atributo el valor del nombre</t>
+  </si>
+  <si>
+    <t>En caso de que no resgistre un estado se registrara activo</t>
+  </si>
+  <si>
+    <t>Regla especial</t>
+  </si>
+  <si>
+    <t>Quitar espacios en blanco al inicio y al final</t>
+  </si>
+  <si>
+    <t>¿Autogenerado?</t>
+  </si>
+  <si>
+    <t>¿Obligatorio?</t>
   </si>
 </sst>
 </file>
@@ -835,25 +898,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235ADF5D-12FD-4286-9EA4-B90349F7785B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
@@ -863,7 +933,7 @@
         <v>Tipo Rubro</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
@@ -873,44 +943,233 @@
         <v>Entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertence un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro  puede ser ingreso, el cual indica que los rubros catagorizados con él, corresponde a dinero que la persona va a recibir por diferentes razones: salarios ,inversiones, ganancias ocacionales</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>D6</f>
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>D8</f>
+        <v>1000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>4000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>SUM(D11:D14)</f>
+        <v>5038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>D15/1024</f>
+        <v>4.919921875</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>D16/1024</f>
+        <v>4.8046112060546875E-3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>D17/1024</f>
+        <v>4.6920031309127808E-6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>4000000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>D18*D20</f>
+        <v>18.768012523651123</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>D20*D18*0.4</f>
+        <v>7.5072050094604492</v>
       </c>
     </row>
   </sheetData>
@@ -921,12 +1180,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{557C5C38-525D-49E1-9009-2159B42155DC}">
           <x14:formula1>
             <xm:f>Valores!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>B6:B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C4412802-65E7-4228-933F-54465328708E}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>M6:M9 N6:N10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
